--- a/biology/Zoologie/Hamadryas_arinome/Hamadryas_arinome.xlsx
+++ b/biology/Zoologie/Hamadryas_arinome/Hamadryas_arinome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas arinome  le Craqueur turquoise est une espèce d'insectes lépidoptères de la famille des Nymphalidae, sous-famille des Biblidinae, de la tribu des Ageroniini, et du genre Hamadryas.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas arinome a été décrit par l'entomologiste français Hippolyte Lucas, en  1853, sous le nom initial de Peridromia arinome[1]. La Guyane est la localité type de cette espèce.
-Synonymie
-Peridromia arinome (Lucas, 1953) Protonyme
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas arinome a été décrit par l'entomologiste français Hippolyte Lucas, en  1853, sous le nom initial de Peridromia arinome. La Guyane est la localité type de cette espèce.
 </t>
         </is>
       </c>
@@ -541,54 +553,58 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peridromia arinome (Lucas, 1953) Protonyme
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hamadryas_arinome</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_arinome</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des sous-espèces
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Hamadryas arinome arinome (Lucas, 1853)
 Synonymie pour cette sous-espèce
 Ageronia anomala (Strecker, 1876)
 Peridromia arene (Fruhstorfer, 1915)
 Peridromia arinome sterope (Fruhstorfer, 1916)
-Hamadryas arinome arienis (Godman &amp; Salvin, 1883)[2]
-Hamadryas arinome obnutila (Fruhstorfer, 1916)
-Nom vernaculaire
-Hamadryas  arinome se nomme Craqueur turquoise en français et Turquoise Cracker en anglais[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hamadryas_arinome</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hamadryas_arinome</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas  arinome est un grand papillon d'une envergure autour de 73 mm, aux ailes antérieures à bord costal vouté[4]. Il présente un dessus marron foncé orné de bleu turquoise métallisé qui forme des taches, de chevrons et aux ailes postérieures le tour et le centre d'ocelles en ligne submarginale, avec aux ailes antérieures une bande blanche allant de la moitié du bord costal à l'angle externe.
-Le revers est marron avec aux ailes antérieures la même bande blanche allant de la moitié du bord costal à l'angle externe et aux ailes postérieures des taches rouges à la base du bord costal et en ligne submarginale.
-</t>
+Hamadryas arinome arienis (Godman &amp; Salvin, 1883)
+Hamadryas arinome obnutila (Fruhstorfer, 1916)</t>
         </is>
       </c>
     </row>
@@ -613,13 +629,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôte de sa chenille est une Euphorbiaceae Dalechampia triphylla[5].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas  arinome se nomme Craqueur turquoise en français et Turquoise Cracker en anglais.
 </t>
         </is>
       </c>
@@ -645,17 +666,124 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas  arinome est un grand papillon d'une envergure autour de 73 mm, aux ailes antérieures à bord costal vouté. Il présente un dessus marron foncé orné de bleu turquoise métallisé qui forme des taches, de chevrons et aux ailes postérieures le tour et le centre d'ocelles en ligne submarginale, avec aux ailes antérieures une bande blanche allant de la moitié du bord costal à l'angle externe.
+Le revers est marron avec aux ailes antérieures la même bande blanche allant de la moitié du bord costal à l'angle externe et aux ailes postérieures des taches rouges à la base du bord costal et en ligne submarginale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hamadryas_arinome</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_arinome</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est une Euphorbiaceae Dalechampia triphylla.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hamadryas_arinome</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_arinome</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas arinome est présent au Mexique, à Panama, au Costa Rica, en Colombie, au Pérou, au Brésil et en Guyane[6],[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas arinome est présent au Mexique, à Panama, au Costa Rica, en Colombie, au Pérou, au Brésil et en Guyane,.
 Sur les autres projets Wikimedia :
 Hamadryas arinome, sur Wikimedia CommonsHamadryas arinome, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hamadryas_arinome</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_arinome</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
